--- a/INTLINE/data/566/BTP/NG-Debt_historical.xlsx
+++ b/INTLINE/data/566/BTP/NG-Debt_historical.xlsx
@@ -3551,6 +3551,9 @@
       <c r="MN2">
         <v>2124204</v>
       </c>
+      <c r="MO2">
+        <v>2152085</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
